--- a/output/fit_clients/fit_round_371.xlsx
+++ b/output/fit_clients/fit_round_371.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1625328464.724088</v>
+        <v>2297174283.590109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08647902099896772</v>
+        <v>0.09573990161156729</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03120084981694801</v>
+        <v>0.03671404882894375</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>812664177.6059756</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1856916900.812368</v>
+        <v>1757743724.795357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1302141467562361</v>
+        <v>0.1147722757610885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03613316785815174</v>
+        <v>0.04332005043423544</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>928458468.3145242</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3896075803.016768</v>
+        <v>4409474705.936653</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1583697689294345</v>
+        <v>0.1284031588171503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03286141671765484</v>
+        <v>0.03053861272193526</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1948037908.337675</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3855257445.714239</v>
+        <v>2929300714.242413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09763003888023279</v>
+        <v>0.09610466220099241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04806556101138867</v>
+        <v>0.04185730509696311</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1927628736.158858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2190989062.410929</v>
+        <v>2266964216.772737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1329835275652585</v>
+        <v>0.0918659833636717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03729980681100348</v>
+        <v>0.04806613776448873</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1095494540.144211</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2723204186.9278</v>
+        <v>2861485175.545796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06521252627630085</v>
+        <v>0.08105921020899969</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0439888124405183</v>
+        <v>0.04450129996152189</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>115</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1361602084.998569</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2419018690.812666</v>
+        <v>2867409118.656711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.220153556537888</v>
+        <v>0.1536496170283349</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02923685737050876</v>
+        <v>0.02537694890317522</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>118</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1209509343.538961</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2083899773.017711</v>
+        <v>1733754168.628418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869538901699451</v>
+        <v>0.1913185456986411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02957954184954449</v>
+        <v>0.03436629917319048</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1041949901.494764</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4016541849.451097</v>
+        <v>3895829756.304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1666725272200923</v>
+        <v>0.1712696625040204</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03953799699405156</v>
+        <v>0.04975024928849596</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>156</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2008270947.907573</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3649287719.77322</v>
+        <v>4136559327.552577</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1910611945070183</v>
+        <v>0.1185528770723893</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03393091752145951</v>
+        <v>0.03205477577989971</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>153</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1824643848.089093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2978365438.548211</v>
+        <v>2343119880.482874</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1228975991639565</v>
+        <v>0.1448012167663224</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04509822888828521</v>
+        <v>0.03438365734067705</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>127</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1489182735.30229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5197621640.214139</v>
+        <v>4168017681.802865</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07723271699533386</v>
+        <v>0.0721230871224071</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02994475136518851</v>
+        <v>0.0194547013718766</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>124</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2598810814.2191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2878901385.60386</v>
+        <v>2810418993.042727</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1718909200942934</v>
+        <v>0.1613832230286704</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03468111100869843</v>
+        <v>0.03671002738082166</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1439450736.021817</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1664457656.188834</v>
+        <v>1837406999.887487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1069857827003383</v>
+        <v>0.08316662923791167</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03313362029975861</v>
+        <v>0.03130029201517878</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>832228950.8877156</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2711340118.650082</v>
+        <v>2357377214.533811</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1013451002479376</v>
+        <v>0.08380249648747773</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04986295706226325</v>
+        <v>0.04671979891553362</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>74</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1355670071.274448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5231543656.664885</v>
+        <v>3790599575.335613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328720756574615</v>
+        <v>0.1271636028374973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04358754493645361</v>
+        <v>0.03961826992838036</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>108</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2615771802.024242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3610281770.461669</v>
+        <v>2555327583.631651</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1451837534578436</v>
+        <v>0.115966704205151</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02541451935302088</v>
+        <v>0.03110523101506638</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>121</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1805140871.290253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1044367839.234911</v>
+        <v>1244106416.051743</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1814933434194391</v>
+        <v>0.1203705763157892</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02457980312235026</v>
+        <v>0.0187331611319441</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>522183959.6487749</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1996513623.643293</v>
+        <v>2524997659.513511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1279133212974257</v>
+        <v>0.1358223914377674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03034568322546302</v>
+        <v>0.02159273534127792</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>998256838.5501068</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2249674525.606042</v>
+        <v>2115570343.125393</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08499546358868876</v>
+        <v>0.09026672888400275</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04060427446508105</v>
+        <v>0.03333791955348703</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1124837274.861142</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2851997145.84249</v>
+        <v>2758503808.844193</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1254266362421563</v>
+        <v>0.09064432186817034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05118555230542128</v>
+        <v>0.04334110198193034</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>103</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1425998643.322105</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1529235877.130716</v>
+        <v>1470946566.768077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1726319894651642</v>
+        <v>0.1680855411053293</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0337538367390198</v>
+        <v>0.05110418128675434</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>764617919.592087</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3544081146.092306</v>
+        <v>3434202801.979107</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09820226322621525</v>
+        <v>0.1393913210189231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03171294930518882</v>
+        <v>0.03276292489100822</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>108</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1772040571.696035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>943294619.4677664</v>
+        <v>1085683931.590792</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1133120599649996</v>
+        <v>0.07811862511978013</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02256350244440805</v>
+        <v>0.02478292944180905</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>471647386.7660749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1128507427.109412</v>
+        <v>1212967076.69072</v>
       </c>
       <c r="F26" t="n">
-        <v>0.091879476973435</v>
+        <v>0.1196560153220826</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02888044365417838</v>
+        <v>0.02702958416978942</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>564253717.1512288</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3926883042.520371</v>
+        <v>4439990161.451921</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1356597877906856</v>
+        <v>0.1359773255241286</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02291217851171122</v>
+        <v>0.01744521702736608</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1963441535.041758</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2523365933.681553</v>
+        <v>3297688539.588759</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1154208124553219</v>
+        <v>0.1424784439815118</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03240204952130023</v>
+        <v>0.03213028342160829</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1261682936.723621</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4194957308.443639</v>
+        <v>4661068298.952399</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1469964402853149</v>
+        <v>0.1465925237671218</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03917981551089216</v>
+        <v>0.03530634332558765</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>164</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2097478657.554556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2052691071.049417</v>
+        <v>2235279718.011391</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1084374006800441</v>
+        <v>0.1341443759412137</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04011651073746161</v>
+        <v>0.02551097217917585</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1026345578.980762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1240227533.197884</v>
+        <v>1228185658.751526</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08526645057617063</v>
+        <v>0.09370013503519656</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03764655358134467</v>
+        <v>0.03547985802989057</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>620113708.6114975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1262260320.520572</v>
+        <v>1162586023.380341</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07324834998067858</v>
+        <v>0.08217486669721638</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02963411559810589</v>
+        <v>0.02396288039536825</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>631130179.3944148</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1994194855.868786</v>
+        <v>2754291185.452271</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1259475659684294</v>
+        <v>0.1806788352490969</v>
       </c>
       <c r="G33" t="n">
-        <v>0.051779231266266</v>
+        <v>0.05746251346732985</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112</v>
-      </c>
-      <c r="J33" t="n">
-        <v>997097509.2308964</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>971153632.6591364</v>
+        <v>1136216735.087701</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09700716891348436</v>
+        <v>0.1147613577141188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01803161850597886</v>
+        <v>0.02457927249752276</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>485576858.9257527</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>897448237.4435054</v>
+        <v>1031150263.500249</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108438655498391</v>
+        <v>0.08006281019957694</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04277404851691004</v>
+        <v>0.03119238787638724</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>448724159.81264</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2420529503.565196</v>
+        <v>2433853888.134175</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1531766945362081</v>
+        <v>0.1513063215665321</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02355155369652507</v>
+        <v>0.02218460603369361</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>93</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1210264780.155182</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2711633492.903644</v>
+        <v>2823746376.523811</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08949385921079021</v>
+        <v>0.09365943102266536</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03234847873947154</v>
+        <v>0.04261612828987132</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>98</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1355816871.639374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1952794074.623063</v>
+        <v>1438414703.396728</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1214158076236165</v>
+        <v>0.1055869740093246</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02982623985762351</v>
+        <v>0.03652904009314604</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>976397022.6130571</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1943371394.33251</v>
+        <v>1565399688.055653</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1627377597735748</v>
+        <v>0.1760913184798897</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02301957577240299</v>
+        <v>0.02475976488256498</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>971685700.3407822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1616849926.315194</v>
+        <v>1108941306.824391</v>
       </c>
       <c r="F40" t="n">
-        <v>0.111822642753934</v>
+        <v>0.1562230264823366</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04750701576133191</v>
+        <v>0.0558565187202414</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>808424900.1207619</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2217777664.15454</v>
+        <v>1897280543.769428</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1404617463276197</v>
+        <v>0.1050388950541196</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03823675750813175</v>
+        <v>0.0418875636900415</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>95</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1108888884.972968</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4271346754.496232</v>
+        <v>4114731933.818842</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09759352707666745</v>
+        <v>0.08401659398157767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0444167616851685</v>
+        <v>0.02953825559646698</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2135673425.21358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2534954934.890121</v>
+        <v>2555574609.624241</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1796160672900916</v>
+        <v>0.1734424177910773</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0162727375559324</v>
+        <v>0.01909099062874094</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1267477512.609461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2035066147.637722</v>
+        <v>2025887281.885821</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06416515305820762</v>
+        <v>0.0879849948278878</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02988270881749452</v>
+        <v>0.02400535048527967</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1017533187.162669</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1784989613.9303</v>
+        <v>1535976971.424943</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1381776006632789</v>
+        <v>0.1391175846544375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05244403432807127</v>
+        <v>0.03989099056508647</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>892494776.1591636</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5041618713.679525</v>
+        <v>4022496662.992846</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1462268915148942</v>
+        <v>0.1589719828767651</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04955114481180604</v>
+        <v>0.0396363586174701</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>132</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2520809386.060657</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3798432277.975582</v>
+        <v>3966849218.013255</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1734327694814317</v>
+        <v>0.1485285487404384</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03742267675579625</v>
+        <v>0.04932528161165022</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>99</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1899216126.753406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3687530376.161716</v>
+        <v>3842594011.311888</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07244425454968845</v>
+        <v>0.07599866606357171</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03918083596225207</v>
+        <v>0.03088636671357861</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1843765240.601429</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1778973185.483545</v>
+        <v>1847517204.454766</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1762320121652036</v>
+        <v>0.1736562100513958</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04358738137863512</v>
+        <v>0.04069860212882535</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>889486581.4083967</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3182963323.609904</v>
+        <v>2629941424.447783</v>
       </c>
       <c r="F50" t="n">
-        <v>0.107363875629748</v>
+        <v>0.1627805054257572</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05233648319156743</v>
+        <v>0.03386378041506306</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>127</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1591481708.649932</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>942298464.4661709</v>
+        <v>1112146501.625626</v>
       </c>
       <c r="F51" t="n">
-        <v>0.157138540431593</v>
+        <v>0.1407366576314287</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04417488901139777</v>
+        <v>0.033348231152845</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>471149325.5631368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5269120587.84948</v>
+        <v>3860457791.021502</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09187853718877746</v>
+        <v>0.1098585942027041</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04527822131822247</v>
+        <v>0.05203859615030868</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>153</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2634560275.722928</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3790161347.401857</v>
+        <v>3735713977.904305</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1873801453350257</v>
+        <v>0.20410557304125</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0272381850612645</v>
+        <v>0.02609069720250053</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>107</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1895080651.608625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3830188813.169016</v>
+        <v>3058872147.37362</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1608531021272279</v>
+        <v>0.1652954382906826</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04225508281332967</v>
+        <v>0.04311109049659438</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>121</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1915094457.312417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4680320643.024918</v>
+        <v>3930013542.616306</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1399553334654464</v>
+        <v>0.1926962724095407</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02895401377662315</v>
+        <v>0.02635145356731643</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>105</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2340160326.456913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1866868532.051069</v>
+        <v>1880136598.465772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1427028740456347</v>
+        <v>0.1533371289420916</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04553170272000709</v>
+        <v>0.03902168233420326</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>933434253.9334083</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3939784475.524549</v>
+        <v>4592806276.855186</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1639427136229277</v>
+        <v>0.1679301986594181</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02579761349723419</v>
+        <v>0.01844982602907942</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>118</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1969892321.085642</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1881035823.584985</v>
+        <v>1566208659.336579</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1348826388531593</v>
+        <v>0.161021676743006</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02984538354676947</v>
+        <v>0.03214908805537161</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>940517908.1776686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5007706197.837082</v>
+        <v>3651090332.758783</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08151500833218446</v>
+        <v>0.1275179753487516</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0403572013883369</v>
+        <v>0.04897023542328266</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2503853026.278018</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3003768070.02785</v>
+        <v>3436979614.331179</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160513081044965</v>
+        <v>0.1533123533294001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02643445386804842</v>
+        <v>0.03300029870055236</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>118</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1501884105.771052</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2873188814.05266</v>
+        <v>2181206730.181352</v>
       </c>
       <c r="F61" t="n">
-        <v>0.120952355071331</v>
+        <v>0.13848928479805</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02293243587858011</v>
+        <v>0.02361395985366185</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>128</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1436594399.463326</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1644539655.175794</v>
+        <v>1805520600.405151</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1651621511919529</v>
+        <v>0.1457341115225892</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04456377920168586</v>
+        <v>0.04004851733868704</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>822269832.3390136</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5540293505.185149</v>
+        <v>4426815808.848565</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07706336947223405</v>
+        <v>0.1030689062245452</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04368725301811217</v>
+        <v>0.03495192635756481</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2770146746.287922</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4711640466.465975</v>
+        <v>4517494013.58948</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1404031384809034</v>
+        <v>0.1587478047955532</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02236333990050505</v>
+        <v>0.02874496007730373</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>115</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2355820319.163613</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4279573787.598676</v>
+        <v>5522113579.749897</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1651106593971144</v>
+        <v>0.1076777327751715</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02488854226289144</v>
+        <v>0.03225159860014395</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>133</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2139786895.719891</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3572084524.738979</v>
+        <v>5376332951.613556</v>
       </c>
       <c r="F66" t="n">
-        <v>0.129592609380743</v>
+        <v>0.10906270308437</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04883106417821551</v>
+        <v>0.04194839530753635</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>108</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1786042213.038358</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2667407855.158782</v>
+        <v>2231684233.620829</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07496364781748947</v>
+        <v>0.06317912828836619</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03592808078318279</v>
+        <v>0.0454111479898455</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>118</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1333703973.981721</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5022543300.536893</v>
+        <v>5936923772.854843</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1082833480249418</v>
+        <v>0.1286462051160967</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03434699636415088</v>
+        <v>0.04697361283968698</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2511271708.036673</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1714204586.089721</v>
+        <v>2216991497.91666</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1509851332695982</v>
+        <v>0.1459312308981918</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05220063532824891</v>
+        <v>0.05594555963257952</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>857102261.0385246</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2314698953.294043</v>
+        <v>2416042638.737867</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07767284180365977</v>
+        <v>0.06339236653820762</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04019659090854578</v>
+        <v>0.03050265745143076</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>106</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1157349409.122034</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5459194771.65128</v>
+        <v>3941069945.024436</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1668534012276368</v>
+        <v>0.1730998598168748</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03308957820727292</v>
+        <v>0.02769311984815482</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>135</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2729597525.855672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1904024054.001089</v>
+        <v>1929128760.6077</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08307690130489861</v>
+        <v>0.07763947188324534</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04941331223129647</v>
+        <v>0.03812957405380753</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>952011988.8450478</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2660609815.315713</v>
+        <v>3322566905.65518</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07724170972012055</v>
+        <v>0.1092465464492399</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03519614335582146</v>
+        <v>0.03814560196211635</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>141</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1330304934.741525</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3361243896.960645</v>
+        <v>2557068295.418654</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1376450128932399</v>
+        <v>0.1533793756524014</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02455477256229228</v>
+        <v>0.0282222628540247</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>126</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1680621982.681818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2260595913.253087</v>
+        <v>2377671180.448781</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1588708796032295</v>
+        <v>0.1081237209959876</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02650372968664081</v>
+        <v>0.02412960632624677</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1130297896.39246</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5018834407.55621</v>
+        <v>3768473898.722115</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07661798683896756</v>
+        <v>0.07944944400562447</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0321008415941824</v>
+        <v>0.02231119092955583</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2509417231.227033</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1790148212.261375</v>
+        <v>1924029504.236225</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1755482038940381</v>
+        <v>0.120994821546413</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02954476471841786</v>
+        <v>0.0231922449148606</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>895074136.7059507</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4408426284.93681</v>
+        <v>4019797276.849686</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1120536025236651</v>
+        <v>0.1051436539584404</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05417234646015968</v>
+        <v>0.05352562788196739</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>129</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2204213078.959725</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1797210844.053883</v>
+        <v>1345275136.700273</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1211093246400892</v>
+        <v>0.1285197760871279</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02831980742026013</v>
+        <v>0.04009414219477497</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>898605508.2441691</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4857599409.623271</v>
+        <v>4610681902.094169</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08405838157256079</v>
+        <v>0.09584338626035246</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02623798076450313</v>
+        <v>0.02422651318882136</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2428799746.946718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4256323997.47243</v>
+        <v>5114270548.557504</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09146896079973052</v>
+        <v>0.09709427669083366</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02141182844961462</v>
+        <v>0.02125307424661873</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2128161971.472808</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4480721469.57466</v>
+        <v>4658150278.626898</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2056535593445719</v>
+        <v>0.1386880866707242</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02727226539546031</v>
+        <v>0.0272191882419988</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>130</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2240360747.736347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1789441994.146281</v>
+        <v>2069139443.858657</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1214978072185349</v>
+        <v>0.1022718758934927</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03481895397937936</v>
+        <v>0.02932340079629325</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>894720956.2177039</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2241545824.76346</v>
+        <v>2302237861.241408</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07715656686478072</v>
+        <v>0.08676705164851661</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05043059625261426</v>
+        <v>0.04191919859941307</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1120772882.033638</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2272604785.410523</v>
+        <v>3174041409.610265</v>
       </c>
       <c r="F85" t="n">
-        <v>0.164962125563312</v>
+        <v>0.1833829541071404</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04421329771387418</v>
+        <v>0.05352403568239081</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>139</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1136302372.588961</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1795502332.165099</v>
+        <v>2100733297.218712</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1643637672620148</v>
+        <v>0.1240238345944504</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01891817618403613</v>
+        <v>0.02710805962425009</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>897751165.2900079</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1429824258.352799</v>
+        <v>977533253.4487785</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1581062405908065</v>
+        <v>0.1357004139405457</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04309423143712492</v>
+        <v>0.03664063066363362</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>714912243.6921326</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2882241564.16755</v>
+        <v>3588364299.333887</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1658696285296406</v>
+        <v>0.1667242026730056</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02429540191339298</v>
+        <v>0.03153871523303383</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>147</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1441120800.899198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2828635977.116293</v>
+        <v>3254655909.078891</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1015266661074617</v>
+        <v>0.1020481977374377</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03475819855658869</v>
+        <v>0.03884144378053183</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>125</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1414318039.254401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2013013954.568434</v>
+        <v>1478303737.445336</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1094325797186102</v>
+        <v>0.1203064238806115</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0553434629474778</v>
+        <v>0.04315349156663996</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1006507049.955267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2076327794.175679</v>
+        <v>2049323577.31795</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1811283318964229</v>
+        <v>0.1527194830872565</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05764257276111633</v>
+        <v>0.04813419463000636</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1038163859.175569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2269537162.189539</v>
+        <v>2629642798.421357</v>
       </c>
       <c r="F92" t="n">
-        <v>0.070340739664028</v>
+        <v>0.09024655099094335</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0348725867788812</v>
+        <v>0.03063459768621761</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>105</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1134768547.625863</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3408171427.350046</v>
+        <v>4497508821.906706</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1295730299665007</v>
+        <v>0.13937663655163</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03425453910512799</v>
+        <v>0.04590560918887401</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1704085752.583616</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1527821037.074064</v>
+        <v>1999620239.719277</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1637392917765192</v>
+        <v>0.1179418503170885</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04285910170251076</v>
+        <v>0.03452437599252717</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>763910455.4979455</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3035907432.071585</v>
+        <v>2363133267.418082</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1129403722925379</v>
+        <v>0.1277606147417268</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03776678597088545</v>
+        <v>0.05057251406703597</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1517953713.148423</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1744613481.718509</v>
+        <v>1932003356.689667</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109050383330833</v>
+        <v>0.1184124784279327</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02912911148087716</v>
+        <v>0.04245489298106404</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>872306755.1055126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4175410697.043627</v>
+        <v>4555159172.576097</v>
       </c>
       <c r="F97" t="n">
-        <v>0.142876187611881</v>
+        <v>0.1236266824707254</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02389503632079059</v>
+        <v>0.02567416028060104</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2087705419.028366</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2848880003.80971</v>
+        <v>2572385046.633026</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09689773447916113</v>
+        <v>0.08240284027233398</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02967587123495642</v>
+        <v>0.02368578192962491</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1424439976.354227</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2544586115.182696</v>
+        <v>3360183229.524381</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1370316872735071</v>
+        <v>0.09970493879370558</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02139488266191962</v>
+        <v>0.03460949346100267</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>116</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1272293010.606262</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4127013570.896502</v>
+        <v>3161357970.822371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1614865569363392</v>
+        <v>0.1095940641673292</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02817109096062723</v>
+        <v>0.02082314021661371</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2063506866.278842</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2774840669.272652</v>
+        <v>2273575367.340966</v>
       </c>
       <c r="F101" t="n">
-        <v>0.182107399671446</v>
+        <v>0.1491821662366853</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04062803260035002</v>
+        <v>0.04377358508270846</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>151</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1387420393.990722</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_371.xlsx
+++ b/output/fit_clients/fit_round_371.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2297174283.590109</v>
+        <v>2147378261.793873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09573990161156729</v>
+        <v>0.0896290997872031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03671404882894375</v>
+        <v>0.04155214403615302</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1757743724.795357</v>
+        <v>1858024910.482764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1147722757610885</v>
+        <v>0.1514351882738573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04332005043423544</v>
+        <v>0.03160115976101032</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4409474705.936653</v>
+        <v>3587829160.394709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1284031588171503</v>
+        <v>0.1320408425517517</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03053861272193526</v>
+        <v>0.02574052187096029</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2929300714.242413</v>
+        <v>4130750610.690366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09610466220099241</v>
+        <v>0.09364094551213321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04185730509696311</v>
+        <v>0.03136029752368902</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2266964216.772737</v>
+        <v>2852921928.644351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0918659833636717</v>
+        <v>0.1271232768152061</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04806613776448873</v>
+        <v>0.05239556108684129</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2861485175.545796</v>
+        <v>2958113038.913634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08105921020899969</v>
+        <v>0.09471009191235456</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04450129996152189</v>
+        <v>0.03248309222433479</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2867409118.656711</v>
+        <v>2414805963.620579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1536496170283349</v>
+        <v>0.1688507423347317</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02537694890317522</v>
+        <v>0.02995665341681803</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1733754168.628418</v>
+        <v>2125065567.256759</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1913185456986411</v>
+        <v>0.167879325916142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03436629917319048</v>
+        <v>0.03418154836176155</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3895829756.304</v>
+        <v>5742558918.097411</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1712696625040204</v>
+        <v>0.203638791284088</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04975024928849596</v>
+        <v>0.04489165470259642</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4136559327.552577</v>
+        <v>3279755672.432395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1185528770723893</v>
+        <v>0.1460741049913259</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03205477577989971</v>
+        <v>0.042080711054956</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2343119880.482874</v>
+        <v>2744208748.991967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1448012167663224</v>
+        <v>0.1869363940071152</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03438365734067705</v>
+        <v>0.03283854463869348</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4168017681.802865</v>
+        <v>3583707778.812285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0721230871224071</v>
+        <v>0.0945229896662753</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0194547013718766</v>
+        <v>0.02093517483458453</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2810418993.042727</v>
+        <v>3577471475.468758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1613832230286704</v>
+        <v>0.1469816538874858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03671002738082166</v>
+        <v>0.03325993908444244</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1837406999.887487</v>
+        <v>1169208894.691047</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08316662923791167</v>
+        <v>0.1050319876288287</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03130029201517878</v>
+        <v>0.03684636591481035</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2357377214.533811</v>
+        <v>2627128886.556199</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08380249648747773</v>
+        <v>0.1064894913754259</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04671979891553362</v>
+        <v>0.03443026857034012</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3790599575.335613</v>
+        <v>4236383510.954489</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1271636028374973</v>
+        <v>0.1699187068269054</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03961826992838036</v>
+        <v>0.05144740952600574</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2555327583.631651</v>
+        <v>2710722667.310955</v>
       </c>
       <c r="F18" t="n">
-        <v>0.115966704205151</v>
+        <v>0.1729862449673512</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03110523101506638</v>
+        <v>0.03023605753808879</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1244106416.051743</v>
+        <v>1233615692.697621</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1203705763157892</v>
+        <v>0.153485582287696</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0187331611319441</v>
+        <v>0.02301939135420286</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2524997659.513511</v>
+        <v>2685240172.25606</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1358223914377674</v>
+        <v>0.1516288149485405</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02159273534127792</v>
+        <v>0.02052419447910668</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2115570343.125393</v>
+        <v>2654774154.676715</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09026672888400275</v>
+        <v>0.08699311562778872</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03333791955348703</v>
+        <v>0.02813687201076714</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2758503808.844193</v>
+        <v>3364417232.434524</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09064432186817034</v>
+        <v>0.1298924611952289</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04334110198193034</v>
+        <v>0.03991782805234556</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1470946566.768077</v>
+        <v>1499750656.490061</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1680855411053293</v>
+        <v>0.1394171905325702</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05110418128675434</v>
+        <v>0.04825761510491598</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3434202801.979107</v>
+        <v>3357246444.342161</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1393913210189231</v>
+        <v>0.09642381291178986</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03276292489100822</v>
+        <v>0.02386727629196572</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1085683931.590792</v>
+        <v>1229282443.904659</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07811862511978013</v>
+        <v>0.0951975676963229</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02478292944180905</v>
+        <v>0.02256693989431531</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1212967076.69072</v>
+        <v>1147402590.82303</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1196560153220826</v>
+        <v>0.1014800386551205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02702958416978942</v>
+        <v>0.02464957298897233</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4439990161.451921</v>
+        <v>3598864081.386499</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1359773255241286</v>
+        <v>0.106570127944058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01744521702736608</v>
+        <v>0.0264537581028369</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3297688539.588759</v>
+        <v>2698921318.585263</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1424784439815118</v>
+        <v>0.1325176764438691</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03213028342160829</v>
+        <v>0.04391549282082545</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4661068298.952399</v>
+        <v>3769514721.319005</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1465925237671218</v>
+        <v>0.1339271599099459</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03530634332558765</v>
+        <v>0.04512470279335058</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2235279718.011391</v>
+        <v>2277459165.271651</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1341443759412137</v>
+        <v>0.0966338004201862</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02551097217917585</v>
+        <v>0.02441356175671812</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1228185658.751526</v>
+        <v>1032188753.506851</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09370013503519656</v>
+        <v>0.08500485506635441</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03547985802989057</v>
+        <v>0.05109013751861115</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1162586023.380341</v>
+        <v>1543940858.672652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08217486669721638</v>
+        <v>0.1100727318318364</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02396288039536825</v>
+        <v>0.03469262935794815</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2754291185.452271</v>
+        <v>1974672650.911234</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1806788352490969</v>
+        <v>0.2011227504859473</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05746251346732985</v>
+        <v>0.04590649750783927</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1136216735.087701</v>
+        <v>1391814653.379451</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1147613577141188</v>
+        <v>0.1070959719149346</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02457927249752276</v>
+        <v>0.02414987030030389</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1031150263.500249</v>
+        <v>937457082.4719284</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08006281019957694</v>
+        <v>0.07998225886173488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03119238787638724</v>
+        <v>0.03306160214809432</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2433853888.134175</v>
+        <v>2702240431.507876</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1513063215665321</v>
+        <v>0.1309580426336311</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02218460603369361</v>
+        <v>0.02282381047716326</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2823746376.523811</v>
+        <v>2312270753.309209</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09365943102266536</v>
+        <v>0.09123988451811252</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04261612828987132</v>
+        <v>0.03311119775853389</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1438414703.396728</v>
+        <v>2196742172.400027</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1055869740093246</v>
+        <v>0.094695913752154</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03652904009314604</v>
+        <v>0.03073214979229231</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1565399688.055653</v>
+        <v>1622459157.720991</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760913184798897</v>
+        <v>0.1389520170731123</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02475976488256498</v>
+        <v>0.03002389582551257</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1108941306.824391</v>
+        <v>1610769456.74316</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1562230264823366</v>
+        <v>0.1089731103534286</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0558565187202414</v>
+        <v>0.04397051045136269</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1897280543.769428</v>
+        <v>2018582402.062287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1050388950541196</v>
+        <v>0.1092289805565685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0418875636900415</v>
+        <v>0.03951841202216085</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4114731933.818842</v>
+        <v>3716598507.934514</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08401659398157767</v>
+        <v>0.1115950975471701</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02953825559646698</v>
+        <v>0.04552655713584183</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2555574609.624241</v>
+        <v>2227017604.012438</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1734424177910773</v>
+        <v>0.1421990302512626</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01909099062874094</v>
+        <v>0.01801232787180342</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2025887281.885821</v>
+        <v>1834253448.51972</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0879849948278878</v>
+        <v>0.07436143500399361</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02400535048527967</v>
+        <v>0.02693549126971194</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1535976971.424943</v>
+        <v>1598264990.492912</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1391175846544375</v>
+        <v>0.1300931167868253</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03989099056508647</v>
+        <v>0.0436562346540993</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4022496662.992846</v>
+        <v>5599720487.797636</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1589719828767651</v>
+        <v>0.1532794738395897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0396363586174701</v>
+        <v>0.0563332488756554</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3966849218.013255</v>
+        <v>4615227370.96172</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1485285487404384</v>
+        <v>0.1673114226529729</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04932528161165022</v>
+        <v>0.05462512044199745</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3842594011.311888</v>
+        <v>3914993154.3814</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07599866606357171</v>
+        <v>0.09384025052981108</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03088636671357861</v>
+        <v>0.02618850127387181</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1847517204.454766</v>
+        <v>1658425442.645376</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1736562100513958</v>
+        <v>0.1460655527215631</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04069860212882535</v>
+        <v>0.03340375550443334</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2629941424.447783</v>
+        <v>3956642799.195975</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1627805054257572</v>
+        <v>0.1369758802466622</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03386378041506306</v>
+        <v>0.03434219343235187</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1112146501.625626</v>
+        <v>1173860236.822307</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1407366576314287</v>
+        <v>0.1191884015521689</v>
       </c>
       <c r="G51" t="n">
-        <v>0.033348231152845</v>
+        <v>0.045458472229761</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3860457791.021502</v>
+        <v>4116073628.893204</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1098585942027041</v>
+        <v>0.1298109112613328</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05203859615030868</v>
+        <v>0.05306535484812524</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3735713977.904305</v>
+        <v>2537457252.747275</v>
       </c>
       <c r="F53" t="n">
-        <v>0.20410557304125</v>
+        <v>0.1903060709472288</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02609069720250053</v>
+        <v>0.02517860999769322</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3058872147.37362</v>
+        <v>3093982703.007936</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1652954382906826</v>
+        <v>0.1613634430858579</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04311109049659438</v>
+        <v>0.05232857822784814</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3930013542.616306</v>
+        <v>4162579113.919955</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1926962724095407</v>
+        <v>0.1927871726445117</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02635145356731643</v>
+        <v>0.02854108148160817</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1880136598.465772</v>
+        <v>1731092603.445169</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1533371289420916</v>
+        <v>0.1396781597802865</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03902168233420326</v>
+        <v>0.04648774911219156</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4592806276.855186</v>
+        <v>2812401430.425212</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1679301986594181</v>
+        <v>0.1133979206150746</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01844982602907942</v>
+        <v>0.01828596101693762</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1566208659.336579</v>
+        <v>1743436476.1262</v>
       </c>
       <c r="F58" t="n">
-        <v>0.161021676743006</v>
+        <v>0.1664317921155452</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03214908805537161</v>
+        <v>0.03690499451408787</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3651090332.758783</v>
+        <v>5239333321.12999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1275179753487516</v>
+        <v>0.08202195176562381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04897023542328266</v>
+        <v>0.0398225368102818</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3436979614.331179</v>
+        <v>3230986508.07747</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1533123533294001</v>
+        <v>0.194353375069162</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03300029870055236</v>
+        <v>0.02022143989729581</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2181206730.181352</v>
+        <v>3265422870.320762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.13848928479805</v>
+        <v>0.1215458235513529</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02361395985366185</v>
+        <v>0.03162844709613058</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1805520600.405151</v>
+        <v>1807621850.126388</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1457341115225892</v>
+        <v>0.1950906900313692</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04004851733868704</v>
+        <v>0.03777431654941239</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4426815808.848565</v>
+        <v>5084866878.16265</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1030689062245452</v>
+        <v>0.06998000720404372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03495192635756481</v>
+        <v>0.0411126270683341</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4517494013.58948</v>
+        <v>5405610975.14555</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1587478047955532</v>
+        <v>0.1330467329341347</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02874496007730373</v>
+        <v>0.03507586866543031</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5522113579.749897</v>
+        <v>4898058843.708579</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1076777327751715</v>
+        <v>0.1145172315984725</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03225159860014395</v>
+        <v>0.02755660358278672</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5376332951.613556</v>
+        <v>3917516766.056012</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10906270308437</v>
+        <v>0.1238211776583714</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04194839530753635</v>
+        <v>0.0425082648418859</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2231684233.620829</v>
+        <v>2269577186.324844</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06317912828836619</v>
+        <v>0.0761797390480561</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0454111479898455</v>
+        <v>0.05026844915938018</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5936923772.854843</v>
+        <v>4475355030.950712</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1286462051160967</v>
+        <v>0.1014319132257303</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04697361283968698</v>
+        <v>0.0516887521591605</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2216991497.91666</v>
+        <v>2191825464.167038</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1459312308981918</v>
+        <v>0.1154562229317184</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05594555963257952</v>
+        <v>0.03807316646596848</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2416042638.737867</v>
+        <v>3420636863.21271</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06339236653820762</v>
+        <v>0.07939724706674119</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03050265745143076</v>
+        <v>0.0399338164133055</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3941069945.024436</v>
+        <v>4567350181.687759</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1730998598168748</v>
+        <v>0.1845129937606676</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02769311984815482</v>
+        <v>0.02306569276913091</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1929128760.6077</v>
+        <v>1975084995.747901</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07763947188324534</v>
+        <v>0.07739611502064676</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03812957405380753</v>
+        <v>0.03847577097866703</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3322566905.65518</v>
+        <v>2556624268.207398</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1092465464492399</v>
+        <v>0.08886272366897209</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03814560196211635</v>
+        <v>0.04004553829431341</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2557068295.418654</v>
+        <v>3829659710.603388</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1533793756524014</v>
+        <v>0.1304178135244863</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0282222628540247</v>
+        <v>0.03229704859464148</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2377671180.448781</v>
+        <v>1583876916.329501</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1081237209959876</v>
+        <v>0.1196868893938437</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02412960632624677</v>
+        <v>0.02775882883763001</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3768473898.722115</v>
+        <v>4241513074.545264</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07944944400562447</v>
+        <v>0.1197872335236766</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02231119092955583</v>
+        <v>0.02070919993879247</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1924029504.236225</v>
+        <v>2098320100.573104</v>
       </c>
       <c r="F77" t="n">
-        <v>0.120994821546413</v>
+        <v>0.1459827672802127</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0231922449148606</v>
+        <v>0.02602274529852911</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4019797276.849686</v>
+        <v>3953083855.566546</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1051436539584404</v>
+        <v>0.09133952187380009</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05352562788196739</v>
+        <v>0.03861355241743849</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1345275136.700273</v>
+        <v>1457005341.085309</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1285197760871279</v>
+        <v>0.1191878437562259</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04009414219477497</v>
+        <v>0.0301056510867471</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4610681902.094169</v>
+        <v>3405102645.736157</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09584338626035246</v>
+        <v>0.108619200195612</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02422651318882136</v>
+        <v>0.03051521201873332</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5114270548.557504</v>
+        <v>4509928153.692418</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09709427669083366</v>
+        <v>0.1035510701734015</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02125307424661873</v>
+        <v>0.02306564977493305</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4658150278.626898</v>
+        <v>4050252333.333641</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1386880866707242</v>
+        <v>0.1692313977109578</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0272191882419988</v>
+        <v>0.02632238630990889</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2069139443.858657</v>
+        <v>1771627783.890803</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1022718758934927</v>
+        <v>0.1246541464382393</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02932340079629325</v>
+        <v>0.02917338105538556</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2302237861.241408</v>
+        <v>2171109564.627159</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08676705164851661</v>
+        <v>0.1195343370998109</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04191919859941307</v>
+        <v>0.03191466916311324</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3174041409.610265</v>
+        <v>2965718269.195437</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1833829541071404</v>
+        <v>0.1411622556082397</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05352403568239081</v>
+        <v>0.04007544361661337</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2100733297.218712</v>
+        <v>2300703996.521747</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1240238345944504</v>
+        <v>0.1357542150840165</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02710805962425009</v>
+        <v>0.02532288766313567</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>977533253.4487785</v>
+        <v>1308196185.043589</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1357004139405457</v>
+        <v>0.1303807209747506</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03664063066363362</v>
+        <v>0.03788738367569233</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3588364299.333887</v>
+        <v>2831783516.609629</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1667242026730056</v>
+        <v>0.1356208641273383</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03153871523303383</v>
+        <v>0.03775140006617</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3254655909.078891</v>
+        <v>2496472983.759567</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1020481977374377</v>
+        <v>0.1063140495083112</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03884144378053183</v>
+        <v>0.02873797843265142</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1478303737.445336</v>
+        <v>1401006071.033207</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1203064238806115</v>
+        <v>0.1323586850759157</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04315349156663996</v>
+        <v>0.0465990917978875</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2049323577.31795</v>
+        <v>1659563486.651423</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1527194830872565</v>
+        <v>0.1734095861805259</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04813419463000636</v>
+        <v>0.05961769458550479</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2629642798.421357</v>
+        <v>2958342890.705999</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09024655099094335</v>
+        <v>0.06799196923531894</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03063459768621761</v>
+        <v>0.02890618199555733</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4497508821.906706</v>
+        <v>4276853297.109434</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13937663655163</v>
+        <v>0.1251632340328963</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04590560918887401</v>
+        <v>0.04525003024990504</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1999620239.719277</v>
+        <v>1803981133.425607</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1179418503170885</v>
+        <v>0.1286284285095582</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03452437599252717</v>
+        <v>0.03170366654005102</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2363133267.418082</v>
+        <v>1975031607.689076</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1277606147417268</v>
+        <v>0.1127428297808063</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05057251406703597</v>
+        <v>0.04294913487603815</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1932003356.689667</v>
+        <v>2357914263.665285</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1184124784279327</v>
+        <v>0.09555274769173577</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04245489298106404</v>
+        <v>0.0402915068681327</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4555159172.576097</v>
+        <v>4770496295.307395</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1236266824707254</v>
+        <v>0.1096205200743635</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02567416028060104</v>
+        <v>0.02200491325648434</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2572385046.633026</v>
+        <v>3629971420.595023</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08240284027233398</v>
+        <v>0.1028515344321579</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02368578192962491</v>
+        <v>0.02757340178839707</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3360183229.524381</v>
+        <v>3176733022.965518</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09970493879370558</v>
+        <v>0.09923733183824016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03460949346100267</v>
+        <v>0.03067806620475439</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3161357970.822371</v>
+        <v>3859480328.707934</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1095940641673292</v>
+        <v>0.1492919753099491</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02082314021661371</v>
+        <v>0.01743212165406179</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2273575367.340966</v>
+        <v>2180136644.321621</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1491821662366853</v>
+        <v>0.1909242766396787</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04377358508270846</v>
+        <v>0.05177695232228448</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_371.xlsx
+++ b/output/fit_clients/fit_round_371.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2147378261.793873</v>
+        <v>1539051526.216042</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0896290997872031</v>
+        <v>0.1021484151817678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04155214403615302</v>
+        <v>0.03363931507649358</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1858024910.482764</v>
+        <v>1610241634.323071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1514351882738573</v>
+        <v>0.1813903507785023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03160115976101032</v>
+        <v>0.03545289064775816</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3587829160.394709</v>
+        <v>3920929320.484583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1320408425517517</v>
+        <v>0.1245204417396817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02574052187096029</v>
+        <v>0.03682473937258123</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>191</v>
+      </c>
+      <c r="J4" t="n">
+        <v>370</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50.75592583812525</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4130750610.690366</v>
+        <v>3091458492.000824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09364094551213321</v>
+        <v>0.06979510325423822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03136029752368902</v>
+        <v>0.04037754769782448</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>149</v>
+      </c>
+      <c r="J5" t="n">
+        <v>367</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2852921928.644351</v>
+        <v>2792744274.772949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1271232768152061</v>
+        <v>0.1281567988556817</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05239556108684129</v>
+        <v>0.05210580545997245</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2958113038.913634</v>
+        <v>3026051307.472788</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09471009191235456</v>
+        <v>0.1008534158107783</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03248309222433479</v>
+        <v>0.03130854126037237</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2414805963.620579</v>
+        <v>3918982222.500478</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1688507423347317</v>
+        <v>0.1581981967022344</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02995665341681803</v>
+        <v>0.02785618722367238</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>98</v>
+      </c>
+      <c r="J8" t="n">
+        <v>371</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65.78099996274236</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2125065567.256759</v>
+        <v>1565931016.729643</v>
       </c>
       <c r="F9" t="n">
-        <v>0.167879325916142</v>
+        <v>0.1917508065326176</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03418154836176155</v>
+        <v>0.0276430678214436</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5742558918.097411</v>
+        <v>4182884676.640219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.203638791284088</v>
+        <v>0.2123972827901993</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04489165470259642</v>
+        <v>0.05363537622954526</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>307</v>
+      </c>
+      <c r="J10" t="n">
+        <v>371</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3279755672.432395</v>
+        <v>3099795272.180778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1460741049913259</v>
+        <v>0.1373397573759474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.042080711054956</v>
+        <v>0.04831742744323291</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>154</v>
+      </c>
+      <c r="J11" t="n">
+        <v>369</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2744208748.991967</v>
+        <v>2250403742.409216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869363940071152</v>
+        <v>0.1603720008764286</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03283854463869348</v>
+        <v>0.03470026172673733</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3583707778.812285</v>
+        <v>3413402779.110585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0945229896662753</v>
+        <v>0.08500593368971761</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02093517483458453</v>
+        <v>0.02129096378053879</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>193</v>
+      </c>
+      <c r="J13" t="n">
+        <v>370</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38.86347413457495</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3577471475.468758</v>
+        <v>3398295642.468987</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1469816538874858</v>
+        <v>0.1863572668055263</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03325993908444244</v>
+        <v>0.04431273421777172</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>77</v>
+      </c>
+      <c r="J14" t="n">
+        <v>370</v>
+      </c>
+      <c r="K14" t="n">
+        <v>52.71210776384399</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1169208894.691047</v>
+        <v>1739102821.301926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1050319876288287</v>
+        <v>0.1065208567685575</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03684636591481035</v>
+        <v>0.040512504033062</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2627128886.556199</v>
+        <v>2642675086.313783</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064894913754259</v>
+        <v>0.1134217815924876</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03443026857034012</v>
+        <v>0.03374868120906787</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4236383510.954489</v>
+        <v>4658690187.37242</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1699187068269054</v>
+        <v>0.1161831502778436</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05144740952600574</v>
+        <v>0.0380988940967986</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>175</v>
+      </c>
+      <c r="J17" t="n">
+        <v>371</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59.20880355213233</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2710722667.310955</v>
+        <v>3286638186.384698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1729862449673512</v>
+        <v>0.1202219122318519</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03023605753808879</v>
+        <v>0.02383621110281741</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>369</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1233615692.697621</v>
+        <v>1249466380.154472</v>
       </c>
       <c r="F19" t="n">
-        <v>0.153485582287696</v>
+        <v>0.1640181009076635</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02301939135420286</v>
+        <v>0.02482078041814499</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2685240172.25606</v>
+        <v>2614072122.265143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1516288149485405</v>
+        <v>0.1299838806247467</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02052419447910668</v>
+        <v>0.02065639772077054</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2654774154.676715</v>
+        <v>2574758915.343918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08699311562778872</v>
+        <v>0.06866482754591642</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02813687201076714</v>
+        <v>0.03056836466953908</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3364417232.434524</v>
+        <v>2879707588.043086</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1298924611952289</v>
+        <v>0.09759847843374542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03991782805234556</v>
+        <v>0.05508631758109185</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="n">
+        <v>31.89699872994938</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1499750656.490061</v>
+        <v>1214352703.319747</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1394171905325702</v>
+        <v>0.1664485283454795</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04825761510491598</v>
+        <v>0.05210624078384306</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3357246444.342161</v>
+        <v>3586077005.638792</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09642381291178986</v>
+        <v>0.09573565062002154</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02386727629196572</v>
+        <v>0.02424222119469209</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>114</v>
+      </c>
+      <c r="J24" t="n">
+        <v>371</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1229282443.904659</v>
+        <v>1144226726.651368</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0951975676963229</v>
+        <v>0.1003183680965738</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02256693989431531</v>
+        <v>0.02544041256651709</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1147402590.82303</v>
+        <v>936919182.2751356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1014800386551205</v>
+        <v>0.1196524969076171</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02464957298897233</v>
+        <v>0.02953440313913943</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3598864081.386499</v>
+        <v>4482683273.578438</v>
       </c>
       <c r="F27" t="n">
-        <v>0.106570127944058</v>
+        <v>0.117522393317208</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0264537581028369</v>
+        <v>0.01865985045492077</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>155</v>
+      </c>
+      <c r="J27" t="n">
+        <v>371</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2698921318.585263</v>
+        <v>3144093169.539402</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1325176764438691</v>
+        <v>0.1330872410242088</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04391549282082545</v>
+        <v>0.04494425776816412</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3769514721.319005</v>
+        <v>5790976065.178827</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1339271599099459</v>
+        <v>0.1511267847955433</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04512470279335058</v>
+        <v>0.03089455126250298</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>324</v>
+      </c>
+      <c r="J29" t="n">
+        <v>370</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56.3492029409018</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2277459165.271651</v>
+        <v>1961882749.197232</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0966338004201862</v>
+        <v>0.09936482354685258</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02441356175671812</v>
+        <v>0.03165611730924136</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1032188753.506851</v>
+        <v>1171634221.730055</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08500485506635441</v>
+        <v>0.07869662146736647</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05109013751861115</v>
+        <v>0.04571331542400447</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1543940858.672652</v>
+        <v>1861287190.197664</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1100727318318364</v>
+        <v>0.08748158262887645</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03469262935794815</v>
+        <v>0.03728282817788164</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1974672650.911234</v>
+        <v>2225321605.568887</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2011227504859473</v>
+        <v>0.1717993894930761</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04590649750783927</v>
+        <v>0.04104003458060925</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1391814653.379451</v>
+        <v>1316917587.122119</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1070959719149346</v>
+        <v>0.07543256852528393</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02414987030030389</v>
+        <v>0.02764289366450697</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>937457082.4719284</v>
+        <v>1256116892.87981</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07998225886173488</v>
+        <v>0.09846938203454632</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03306160214809432</v>
+        <v>0.0437557920514362</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2702240431.507876</v>
+        <v>2709829115.921538</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1309580426336311</v>
+        <v>0.1453355418712462</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02282381047716326</v>
+        <v>0.02229440951922888</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2312270753.309209</v>
+        <v>2550920669.45986</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09123988451811252</v>
+        <v>0.1035212702154686</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03311119775853389</v>
+        <v>0.03058456433470526</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2196742172.400027</v>
+        <v>1381631188.095357</v>
       </c>
       <c r="F38" t="n">
-        <v>0.094695913752154</v>
+        <v>0.08523051951594422</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03073214979229231</v>
+        <v>0.03968794685769674</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1622459157.720991</v>
+        <v>1401116388.178643</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1389520170731123</v>
+        <v>0.1237967478132131</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03002389582551257</v>
+        <v>0.02282998316819896</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1610769456.74316</v>
+        <v>1563462810.17901</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1089731103534286</v>
+        <v>0.1349889404100779</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04397051045136269</v>
+        <v>0.05501299056320379</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2018582402.062287</v>
+        <v>1788591209.440624</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1092289805565685</v>
+        <v>0.1167868035772231</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03951841202216085</v>
+        <v>0.03357595593898639</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3716598507.934514</v>
+        <v>3000743880.905848</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1115950975471701</v>
+        <v>0.08361628440026085</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04552655713584183</v>
+        <v>0.035953692192849</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2227017604.012438</v>
+        <v>2068374968.470616</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1421990302512626</v>
+        <v>0.1987897767134431</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01801232787180342</v>
+        <v>0.0251138544864095</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1834253448.51972</v>
+        <v>1443665214.716497</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07436143500399361</v>
+        <v>0.06199306668798611</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02693549126971194</v>
+        <v>0.03506824372475612</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1598264990.492912</v>
+        <v>1777379403.671185</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1300931167868253</v>
+        <v>0.1573460681667114</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0436562346540993</v>
+        <v>0.03781645425586164</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5599720487.797636</v>
+        <v>4402393405.141315</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1532794738395897</v>
+        <v>0.1319299120489769</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0563332488756554</v>
+        <v>0.05697681969948219</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>222</v>
+      </c>
+      <c r="J46" t="n">
+        <v>370</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56.75299511114171</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4615227370.96172</v>
+        <v>4364528061.43494</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1673114226529729</v>
+        <v>0.1412474609271403</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05462512044199745</v>
+        <v>0.04041359774822632</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>166</v>
+      </c>
+      <c r="J47" t="n">
+        <v>370</v>
+      </c>
+      <c r="K47" t="n">
+        <v>51.92525018530507</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3914993154.3814</v>
+        <v>3855834101.138156</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09384025052981108</v>
+        <v>0.09060448671164166</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02618850127387181</v>
+        <v>0.03864280237643895</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>191</v>
+      </c>
+      <c r="J48" t="n">
+        <v>371</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1658425442.645376</v>
+        <v>1638449394.429913</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1460655527215631</v>
+        <v>0.1962692397751059</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03340375550443334</v>
+        <v>0.04172857372046818</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3956642799.195975</v>
+        <v>2952255261.30182</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1369758802466622</v>
+        <v>0.174087230296941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03434219343235187</v>
+        <v>0.05049804708353552</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>124</v>
+      </c>
+      <c r="J50" t="n">
+        <v>368</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1173860236.822307</v>
+        <v>1177193271.668769</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1191884015521689</v>
+        <v>0.1562498610537228</v>
       </c>
       <c r="G51" t="n">
-        <v>0.045458472229761</v>
+        <v>0.03712342048775631</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4116073628.893204</v>
+        <v>4885728801.771347</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1298109112613328</v>
+        <v>0.1250929107115403</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05306535484812524</v>
+        <v>0.05961304657491007</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>218</v>
+      </c>
+      <c r="J52" t="n">
+        <v>371</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2537457252.747275</v>
+        <v>2803203511.373643</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1903060709472288</v>
+        <v>0.1303245737167747</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02517860999769322</v>
+        <v>0.02494429532282665</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3093982703.007936</v>
+        <v>4371905432.070247</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1613634430858579</v>
+        <v>0.1378153837775234</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05232857822784814</v>
+        <v>0.04595526977210972</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>197</v>
+      </c>
+      <c r="J54" t="n">
+        <v>371</v>
+      </c>
+      <c r="K54" t="n">
+        <v>58.18218624367152</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4162579113.919955</v>
+        <v>3139970657.555965</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1927871726445117</v>
+        <v>0.2131425016202641</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02854108148160817</v>
+        <v>0.02739867599250367</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>178</v>
+      </c>
+      <c r="J55" t="n">
+        <v>370</v>
+      </c>
+      <c r="K55" t="n">
+        <v>35.78856065363612</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1731092603.445169</v>
+        <v>1472192285.318902</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1396781597802865</v>
+        <v>0.1433225372095513</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04648774911219156</v>
+        <v>0.04598204199806258</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2812401430.425212</v>
+        <v>4070192797.937212</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1133979206150746</v>
+        <v>0.1522395098581041</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01828596101693762</v>
+        <v>0.0234996403770505</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>155</v>
+      </c>
+      <c r="J57" t="n">
+        <v>371</v>
+      </c>
+      <c r="K57" t="n">
+        <v>58.12029317309229</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1743436476.1262</v>
+        <v>1875635605.288307</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1664317921155452</v>
+        <v>0.2020873151422181</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03690499451408787</v>
+        <v>0.02841234843038386</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5239333321.12999</v>
+        <v>4731585799.644203</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08202195176562381</v>
+        <v>0.1302238210541108</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0398225368102818</v>
+        <v>0.0390022032878302</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>181</v>
+      </c>
+      <c r="J59" t="n">
+        <v>370</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56.91355141468279</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3230986508.07747</v>
+        <v>3453779218.395127</v>
       </c>
       <c r="F60" t="n">
-        <v>0.194353375069162</v>
+        <v>0.1323377991801191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02022143989729581</v>
+        <v>0.0259328711660827</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>66</v>
+      </c>
+      <c r="J60" t="n">
+        <v>371</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3265422870.320762</v>
+        <v>2826663103.702021</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1215458235513529</v>
+        <v>0.130829559734969</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03162844709613058</v>
+        <v>0.02502941910252406</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1807621850.126388</v>
+        <v>2037030653.89106</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1950906900313692</v>
+        <v>0.1864196410597581</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03777431654941239</v>
+        <v>0.04021557071200225</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5084866878.16265</v>
+        <v>4463079274.477278</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06998000720404372</v>
+        <v>0.09226199779493205</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0411126270683341</v>
+        <v>0.04309339139419137</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>182</v>
+      </c>
+      <c r="J63" t="n">
+        <v>371</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5405610975.14555</v>
+        <v>4665382208.505663</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1330467329341347</v>
+        <v>0.148818104841675</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03507586866543031</v>
+        <v>0.03018500160346127</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>184</v>
+      </c>
+      <c r="J64" t="n">
+        <v>371</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4898058843.708579</v>
+        <v>4350035157.203196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1145172315984725</v>
+        <v>0.1391584370205089</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02755660358278672</v>
+        <v>0.02907233141238157</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>280</v>
+      </c>
+      <c r="J65" t="n">
+        <v>371</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3917516766.056012</v>
+        <v>5603042808.757328</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1238211776583714</v>
+        <v>0.1125828121122838</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0425082648418859</v>
+        <v>0.04981191240346069</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>183</v>
+      </c>
+      <c r="J66" t="n">
+        <v>371</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2269577186.324844</v>
+        <v>2424701064.094839</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0761797390480561</v>
+        <v>0.09275138055046697</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05026844915938018</v>
+        <v>0.03239005150137449</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4475355030.950712</v>
+        <v>6042718035.726618</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1014319132257303</v>
+        <v>0.1542257756035844</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0516887521591605</v>
+        <v>0.04061028682489564</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>201</v>
+      </c>
+      <c r="J68" t="n">
+        <v>371</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2191825464.167038</v>
+        <v>1614612182.80413</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1154562229317184</v>
+        <v>0.1774817590661058</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03807316646596848</v>
+        <v>0.0494356190329294</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3420636863.21271</v>
+        <v>2421010724.667155</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07939724706674119</v>
+        <v>0.08992038084383176</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0399338164133055</v>
+        <v>0.04545160405863063</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4567350181.687759</v>
+        <v>4692289990.901499</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1845129937606676</v>
+        <v>0.1561753230560828</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02306569276913091</v>
+        <v>0.03049526860892094</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>267</v>
+      </c>
+      <c r="J71" t="n">
+        <v>370</v>
+      </c>
+      <c r="K71" t="n">
+        <v>56.81437785691354</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1975084995.747901</v>
+        <v>1651337724.116948</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07739611502064676</v>
+        <v>0.1044488483810928</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03847577097866703</v>
+        <v>0.0341475375749322</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2556624268.207398</v>
+        <v>2395567752.318186</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08886272366897209</v>
+        <v>0.09836591406983634</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04004553829431341</v>
+        <v>0.03600077624849257</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3829659710.603388</v>
+        <v>3226974552.075323</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1304178135244863</v>
+        <v>0.1199338842284112</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03229704859464148</v>
+        <v>0.02692000219990287</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>106</v>
+      </c>
+      <c r="J74" t="n">
+        <v>369</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1583876916.329501</v>
+        <v>1761400376.33247</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1196868893938437</v>
+        <v>0.1362178791423004</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02775882883763001</v>
+        <v>0.02527117595013198</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4241513074.545264</v>
+        <v>4655319349.017636</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1197872335236766</v>
+        <v>0.1065059479624125</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02070919993879247</v>
+        <v>0.0237795042020561</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>176</v>
+      </c>
+      <c r="J76" t="n">
+        <v>370</v>
+      </c>
+      <c r="K76" t="n">
+        <v>55.73122054736394</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2098320100.573104</v>
+        <v>1647229599.411865</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1459827672802127</v>
+        <v>0.1729008206012974</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02602274529852911</v>
+        <v>0.03113465175113711</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3953083855.566546</v>
+        <v>3831411767.086259</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09133952187380009</v>
+        <v>0.1085425356946972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03861355241743849</v>
+        <v>0.04947244155904851</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>186</v>
+      </c>
+      <c r="J78" t="n">
+        <v>370</v>
+      </c>
+      <c r="K78" t="n">
+        <v>46.60495179044317</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1457005341.085309</v>
+        <v>1926283234.686255</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1191878437562259</v>
+        <v>0.1408553026886663</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0301056510867471</v>
+        <v>0.0334832794268403</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3405102645.736157</v>
+        <v>5151455137.869268</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108619200195612</v>
+        <v>0.07982687063166378</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03051521201873332</v>
+        <v>0.029930911419309</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>181</v>
+      </c>
+      <c r="J80" t="n">
+        <v>370</v>
+      </c>
+      <c r="K80" t="n">
+        <v>44.58572855160868</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4509928153.692418</v>
+        <v>4134088747.287656</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1035510701734015</v>
+        <v>0.118928615827883</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02306564977493305</v>
+        <v>0.0217133563485608</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>172</v>
+      </c>
+      <c r="J81" t="n">
+        <v>370</v>
+      </c>
+      <c r="K81" t="n">
+        <v>54.31775427118278</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4050252333.333641</v>
+        <v>4475287307.388165</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1692313977109578</v>
+        <v>0.1442372213725247</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02632238630990889</v>
+        <v>0.02084266568936375</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>258</v>
+      </c>
+      <c r="J82" t="n">
+        <v>371</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1771627783.890803</v>
+        <v>1713004432.375178</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1246541464382393</v>
+        <v>0.1434648563783251</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02917338105538556</v>
+        <v>0.04227315970373273</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2171109564.627159</v>
+        <v>1577584762.542663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1195343370998109</v>
+        <v>0.07616748527347354</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03191466916311324</v>
+        <v>0.04018458326833812</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2965718269.195437</v>
+        <v>3408399767.947256</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1411622556082397</v>
+        <v>0.1375538058938175</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04007544361661337</v>
+        <v>0.05038690574444269</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>47</v>
+      </c>
+      <c r="J85" t="n">
+        <v>371</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2300703996.521747</v>
+        <v>2645706174.499165</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1357542150840165</v>
+        <v>0.1333672338512792</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532288766313567</v>
+        <v>0.01931823870455377</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1308196185.043589</v>
+        <v>1022175617.189707</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1303807209747506</v>
+        <v>0.1890936635107622</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03788738367569233</v>
+        <v>0.03370689086023586</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2831783516.609629</v>
+        <v>3377059261.233547</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1356208641273383</v>
+        <v>0.1222639301789867</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03775140006617</v>
+        <v>0.02472715599966879</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2496472983.759567</v>
+        <v>2625471344.42315</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1063140495083112</v>
+        <v>0.1435726399497257</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02873797843265142</v>
+        <v>0.03284325366448257</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1401006071.033207</v>
+        <v>1400131675.122559</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1323586850759157</v>
+        <v>0.1328018815005894</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0465990917978875</v>
+        <v>0.04224277219656923</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1659563486.651423</v>
+        <v>1525531061.009596</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1734095861805259</v>
+        <v>0.1769067246633426</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05961769458550479</v>
+        <v>0.04998604928648906</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2958342890.705999</v>
+        <v>2670461918.889555</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06799196923531894</v>
+        <v>0.1105563356140675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02890618199555733</v>
+        <v>0.03389231709582396</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4276853297.109434</v>
+        <v>3583862078.76957</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1251632340328963</v>
+        <v>0.1272598486399433</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04525003024990504</v>
+        <v>0.05346107011237065</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>173</v>
+      </c>
+      <c r="J93" t="n">
+        <v>371</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1803981133.425607</v>
+        <v>2490860025.324384</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1286284285095582</v>
+        <v>0.109611088735327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03170366654005102</v>
+        <v>0.04300447822668055</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1975031607.689076</v>
+        <v>2048484236.23859</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1127428297808063</v>
+        <v>0.09981301465782727</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04294913487603815</v>
+        <v>0.04336164207906358</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2357914263.665285</v>
+        <v>2296629397.079982</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09555274769173577</v>
+        <v>0.1247765015117183</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0402915068681327</v>
+        <v>0.04468526488172289</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4770496295.307395</v>
+        <v>5188422645.006531</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1096205200743635</v>
+        <v>0.137938186270926</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02200491325648434</v>
+        <v>0.02057321554252476</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>192</v>
+      </c>
+      <c r="J97" t="n">
+        <v>371</v>
+      </c>
+      <c r="K97" t="n">
+        <v>57.833243045765</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3629971420.595023</v>
+        <v>3500517048.79998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1028515344321579</v>
+        <v>0.1110381262761315</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757340178839707</v>
+        <v>0.02874550161571454</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>92</v>
+      </c>
+      <c r="J98" t="n">
+        <v>371</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3176733022.965518</v>
+        <v>3103930439.231544</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09923733183824016</v>
+        <v>0.1172717501024504</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03067806620475439</v>
+        <v>0.03044196275116182</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3859480328.707934</v>
+        <v>2941799378.565436</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1492919753099491</v>
+        <v>0.166430049500791</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01743212165406179</v>
+        <v>0.02654706721639926</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>169</v>
+      </c>
+      <c r="J100" t="n">
+        <v>370</v>
+      </c>
+      <c r="K100" t="n">
+        <v>28.82647375044442</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2180136644.321621</v>
+        <v>3391942618.274743</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1909242766396787</v>
+        <v>0.1801048222103642</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05177695232228448</v>
+        <v>0.04667824704594392</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
